--- a/Scopes_02.testcases.xlsx
+++ b/Scopes_02.testcases.xlsx
@@ -157,6 +157,7 @@
   <si>
     <t>ET Testfall Vorbedingung
 R02 Testfall Vorbedingung
+R03 Testfall Vorbedingung
 B01 Testfall Vorbedingung
 B01/01 Testfall Vorbedingung
 B02 Testfall Vorbedingung
@@ -165,7 +166,6 @@
 A02/- Testfall Vorbedingung
 A03 Testfall Vorbedingung
 A03/01 Testfall Vorbedingung
-R03 Testfall Vorbedingung
 B01 Testfall Vorbedingung
 B01/02 Testfall Vorbedingung
 B03 Testfall Vorbedingung
@@ -233,6 +233,7 @@
   <si>
     <t>ET Nachbedingung
 R02 Testfall Nachbedingung
+R03 Testfall Nachbedingung
 B01 Testfall Nachbedingung
 B01/01 Testfall Nachbedingung
 B02 Testfall Nachbedingung
@@ -241,7 +242,6 @@
 A02/- Testfall Nachbedingung
 A03 Testfall Nachbedingung
 A03/01 Testfall Nachbedingung
-R03 Testfall Nachbedingung
 B01 Testfall Nachbedingung
 B01/02 Testfall Nachbedingung
 B03 Testfall Nachbedingung
@@ -266,6 +266,7 @@
   <si>
     <t>ET Testfall Vorbedingung
 R02 Testfall Vorbedingung
+R04 Testfall Vorbedingung
 B01 Testfall Vorbedingung
 B01/01 Testfall Vorbedingung
 B02 Testfall Vorbedingung
@@ -274,7 +275,6 @@
 A02/- Testfall Vorbedingung
 A03 Testfall Vorbedingung
 A03/01 Testfall Vorbedingung
-R04 Testfall Vorbedingung
 B01 Testfall Vorbedingung
 B01/02 Testfall Vorbedingung
 B03 Testfall Vorbedingung
@@ -301,6 +301,7 @@
   <si>
     <t>ET Nachbedingung
 R02 Testfall Nachbedingung
+R04 Testfall Nachbedingung
 B01 Testfall Nachbedingung
 B01/01 Testfall Nachbedingung
 B02 Testfall Nachbedingung
@@ -309,7 +310,6 @@
 A02/- Testfall Nachbedingung
 A03 Testfall Nachbedingung
 A03/01 Testfall Nachbedingung
-R04 Testfall Nachbedingung
 B01 Testfall Nachbedingung
 B01/02 Testfall Nachbedingung
 B03 Testfall Nachbedingung
@@ -322,22 +322,22 @@
 A03/02 Testfall Nachbedingung</t>
   </si>
   <si>
-    <t>Diese Datei wurde erzeugt durch LF-ET 2.2.1 (230323a) und Kommandozeile:</t>
-  </si>
-  <si>
-    <t>-GenTest "D:/LF/Projekte/lfet-help-de_workstuff/test_generation/scopes/Scopes_02.lfet" -Group "Einfach" -NonExecutableRules "50" -RecommendedTestCases -Protocol -ExportExcel "./Scopes_02.testcases.xlsx" -OpenFileOut -OpenDirectoryOut</t>
+    <t>Diese Datei wurde erzeugt durch LF-ET 2.2.1 (230325a) und Kommandozeile:</t>
+  </si>
+  <si>
+    <t>-GenTest "D:/LF/Projekte/rulebased.group/lfet-examples-scope-de/Scopes_02.lfet" -Group "Einfach" -NonExecutableRules "50" -RecommendedTestCases -Protocol -ExportExcel "Scopes_02.testcases.xlsx" -OpenFileOut -OpenDirectoryOut</t>
   </si>
   <si>
     <t>Aktueller Benutzer: lfhl</t>
   </si>
   <si>
-    <t>Aktuelles Verzeichnis (user.dir): "D:\LF\Projekte\lfet-help-de_workstuff\test_generation\scopes"</t>
-  </si>
-  <si>
-    <t>Benötigte Zeit: 00:00:00.101 (25.03.2023 10:11:47.184 - 25.03.2023 10:11:47.285)</t>
-  </si>
-  <si>
-    <t>Entscheidungstabelle: D:\LF\Projekte\lfet-help-de_workstuff\test_generation\scopes\Scopes_02.lfet</t>
+    <t>Aktuelles Verzeichnis (user.dir): "C:\Program Files\JetBrains\IntelliJ IDEA Community Edition 2022.1.2\jbr\bin"</t>
+  </si>
+  <si>
+    <t>Benötigte Zeit: 00:00:00.598 (25.03.2023 20:06:27.100 - 25.03.2023 20:06:27.698)</t>
+  </si>
+  <si>
+    <t>Entscheidungstabelle: D:\LF\Projekte\rulebased.group\lfet-examples-scope-de\Scopes_02.lfet</t>
   </si>
   <si>
     <t>TestValueGroup: Einfach</t>
